--- a/spi_global_rankings_dashboard.xlsx
+++ b/spi_global_rankings_dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP ELITEBOOK 840 G3\DataAnalytics\My Project\Soccer_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP ELITEBOOK 840 G3\DataAnalytics\Project\SPI_Global_Rankings_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D75A22-5CC7-4CBF-AE5F-C81ECE87B9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8491507B-215B-4AD4-9894-C64450521034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spi_global_rankings" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="689">
   <si>
     <t>rank</t>
   </si>
@@ -2636,13 +2637,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -5457,10 +5457,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -5477,7 +5477,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:shade val="53000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -5501,7 +5503,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -5525,7 +5529,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -5549,7 +5553,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -5573,7 +5579,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent1">
+                  <a:tint val="54000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -6686,42 +6694,8 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -10797,7 +10771,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>544904</xdr:colOff>
+      <xdr:colOff>525940</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>129732</xdr:rowOff>
     </xdr:to>
@@ -10877,7 +10851,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>542823</xdr:colOff>
+      <xdr:colOff>523859</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>132575</xdr:rowOff>
     </xdr:to>
@@ -10957,7 +10931,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>534737</xdr:colOff>
+      <xdr:colOff>515773</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>80942</xdr:rowOff>
     </xdr:to>
@@ -11052,8 +11026,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1850843" y="497264"/>
-          <a:ext cx="3923444" cy="2631962"/>
+          <a:off x="1840333" y="498578"/>
+          <a:ext cx="3902423" cy="2693272"/>
           <a:chOff x="1855082" y="491613"/>
           <a:chExt cx="3801983" cy="2607240"/>
         </a:xfrm>
@@ -11166,8 +11140,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5822187" y="497264"/>
-          <a:ext cx="3923444" cy="2630530"/>
+          <a:off x="5790656" y="498578"/>
+          <a:ext cx="3902423" cy="2691840"/>
           <a:chOff x="5722240" y="491613"/>
           <a:chExt cx="3801983" cy="2605808"/>
         </a:xfrm>
@@ -11208,7 +11182,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="10800000" flipV="1">
-            <a:off x="6114428" y="491613"/>
+            <a:off x="6139175" y="491613"/>
             <a:ext cx="3308147" cy="307258"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -11318,8 +11292,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9793105" y="527990"/>
-          <a:ext cx="3922031" cy="2608369"/>
+          <a:off x="9740553" y="529304"/>
+          <a:ext cx="3897507" cy="2669679"/>
           <a:chOff x="9588973" y="522339"/>
           <a:chExt cx="3801984" cy="2583647"/>
         </a:xfrm>
@@ -11361,7 +11335,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="10497984" y="522339"/>
-            <a:ext cx="2406855" cy="317500"/>
+            <a:ext cx="2406855" cy="274360"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -11458,8 +11432,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1850855" y="3278832"/>
-          <a:ext cx="4197764" cy="2637823"/>
+          <a:off x="1840345" y="3345835"/>
+          <a:ext cx="4176743" cy="2699134"/>
           <a:chOff x="1855093" y="3246693"/>
           <a:chExt cx="4206240" cy="2613102"/>
         </a:xfrm>
@@ -11598,8 +11572,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6115326" y="3268591"/>
-          <a:ext cx="3922031" cy="2638518"/>
+          <a:off x="6083795" y="3335594"/>
+          <a:ext cx="3897507" cy="2699829"/>
           <a:chOff x="6128040" y="3236452"/>
           <a:chExt cx="3931920" cy="2613797"/>
         </a:xfrm>
@@ -11738,8 +11712,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10091058" y="3237865"/>
-          <a:ext cx="3649124" cy="2658573"/>
+          <a:off x="10035003" y="3304868"/>
+          <a:ext cx="3628103" cy="2719884"/>
           <a:chOff x="10113661" y="3205726"/>
           <a:chExt cx="3657600" cy="2663181"/>
         </a:xfrm>
@@ -11861,7 +11835,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>225778</xdr:colOff>
+      <xdr:colOff>273921</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>79670</xdr:rowOff>
     </xdr:to>
@@ -11878,8 +11852,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1857208" y="6008630"/>
-          <a:ext cx="11856846" cy="9365781"/>
+          <a:off x="1846698" y="6141323"/>
+          <a:ext cx="11838423" cy="9584747"/>
           <a:chOff x="1854662" y="6309360"/>
           <a:chExt cx="11830765" cy="9512727"/>
         </a:xfrm>
@@ -12075,6 +12049,341 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>292101</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>231141</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>159142</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB15777-99F9-1599-995A-D9E54A3B394A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13093701" y="889002"/>
+          <a:ext cx="548640" cy="438540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330201</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>243738</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>143256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E9FF3B-7427-07B9-6FA9-4FC5BF42A35E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5207001" y="863600"/>
+          <a:ext cx="523137" cy="448056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>154469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB0A4CA-C2E5-0B94-D64E-F9CB0FCCA433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:duotone>
+            <a:schemeClr val="accent1">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="876301"/>
+          <a:ext cx="457200" cy="446568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>231140</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0531196-2230-549C-C54B-2F879AB4FB12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410700" y="3721100"/>
+          <a:ext cx="574040" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>584201</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523241</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3CC066F-D51C-6A52-F591-9F1AC349A7A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5461001" y="3733800"/>
+          <a:ext cx="548640" cy="463296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>560050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1604E771-7539-D471-60A9-81AEBFF6C67A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11010900" y="4622800"/>
+          <a:ext cx="521950" cy="438912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="107950" dist="12700" dir="5400000" algn="ctr">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="soft" dir="t">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d contourW="44450" prstMaterial="matte">
+          <a:bevelT w="63500" h="63500" prst="artDeco"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -26833,6 +27142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26845,7 +27155,7 @@
     <col min="2" max="2" width="11.36328125" customWidth="1"/>
     <col min="3" max="3" width="31.90625" customWidth="1"/>
     <col min="4" max="4" width="36.54296875" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -26890,7 +27200,7 @@
       <c r="F2">
         <v>0.2</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>93.92</v>
       </c>
     </row>
@@ -41601,31 +41911,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F1"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="23" spans="29:29" x14ac:dyDescent="0.35">
+      <c r="AC23" t="s">
+        <v>687</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId2"/>
+        <x14:slicer r:id="rId3"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -41634,7 +41951,8 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G16"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
@@ -41642,13 +41960,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="17.36328125" customWidth="1"/>
     <col min="6" max="6" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -41656,86 +41974,76 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D3" s="3"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>93.92</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>93.69</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>88.16</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>82.27</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>80.73</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41744,7 +42052,8 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E11"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
@@ -41752,12 +42061,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
     <col min="2" max="2" width="19.453125" customWidth="1"/>
     <col min="4" max="4" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -41765,7 +42074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>683</v>
       </c>
@@ -41773,61 +42082,56 @@
         <v>688</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>91.97</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>81.849999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>80.69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>77.349999999999994</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>73.16</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41836,7 +42140,8 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F8"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
@@ -41844,12 +42149,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" customWidth="1"/>
     <col min="5" max="5" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -41857,70 +42162,60 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>683</v>
       </c>
       <c r="B3" t="s">
         <v>688</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>85.82</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>83.79</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>79.459999999999994</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>78.510000000000005</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>75.900000000000006</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41929,7 +42224,8 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I8"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
@@ -41937,11 +42233,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" customWidth="1"/>
     <col min="2" max="2" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -41949,7 +42245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>683</v>
       </c>
@@ -41957,55 +42253,50 @@
         <v>688</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>81.180000000000007</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>77.95</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>75.180000000000007</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>74.98</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>73.88</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42014,7 +42305,8 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I9"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Y24" sqref="Y24"/>
@@ -42022,11 +42314,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -42034,7 +42326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>683</v>
       </c>
@@ -42042,67 +42334,57 @@
         <v>684</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>83.8</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>73.8</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>73.66</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>72.05</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>71.47</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42111,6 +42393,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A3:E13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -42119,12 +42402,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" customWidth="1"/>
     <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="98" width="24" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="10.7265625" bestFit="1" customWidth="1"/>
@@ -42142,7 +42425,7 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>93.92</v>
       </c>
       <c r="D4" t="str">
@@ -42155,10 +42438,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>93.92</v>
       </c>
       <c r="D5" t="str">
@@ -42174,7 +42457,7 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>91.97</v>
       </c>
       <c r="D6" t="str">
@@ -42187,10 +42470,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>91.97</v>
       </c>
       <c r="D7" t="str">
@@ -42206,7 +42489,7 @@
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>85.82</v>
       </c>
       <c r="D8" t="str">
@@ -42219,10 +42502,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>85.82</v>
       </c>
     </row>
@@ -42230,15 +42513,15 @@
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>83.8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>83.8</v>
       </c>
     </row>
@@ -42246,15 +42529,15 @@
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>81.180000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>81.180000000000007</v>
       </c>
     </row>
@@ -42265,20 +42548,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A3:I23"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A3:H23"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.36328125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>683</v>
       </c>
@@ -42286,217 +42570,190 @@
         <v>685</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>77.510000000000005</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>77.55</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>77.95</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>78.510000000000005</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>79.459999999999994</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>80.13</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>80.56</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>80.69</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>80.73</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>81.180000000000007</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>81.849999999999994</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>82.27</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>83.79</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>83.8</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>84.23</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>85.82</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>88.16</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>91.97</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>93.69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>93.92</v>
       </c>
     </row>
